--- a/09. Tugas_non linear_Regulafalsi.xlsx
+++ b/09. Tugas_non linear_Regulafalsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Materi Kuliah\Semester 4\Metode Numerik\03. Metode Numerik Youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F2934F-B103-4769-A010-6C5048BB0154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4021DE-191C-4837-AA8C-810409CF0087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{334C4AC4-0037-40E0-B0A9-B19FDD15C434}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Iterasi</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Metode Regulafalsi</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -434,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F820ED1-770D-461F-BE8D-85E7BF8E8311}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -480,6 +483,9 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -507,6 +513,10 @@
         <f>2*(C5^4)-(C5^2)-6*C5+2</f>
         <v>18</v>
       </c>
+      <c r="H5" s="1">
+        <f>ABS(E5)</f>
+        <v>2.7513536026655565</v>
+      </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
@@ -540,218 +550,250 @@
         <f>2*(C6^4)-(C6^2)-6*C6+2</f>
         <v>18</v>
       </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H19" si="0">ABS(E6)</f>
+        <v>2.1326010494672669</v>
+      </c>
       <c r="L6" s="1">
         <v>1E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" ref="A7:A13" si="0">A6+1</f>
+        <f t="shared" ref="A7:A13" si="1">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B13" si="1">IF(E6*F6&gt;0, D6,B6)</f>
+        <f t="shared" ref="B7:B13" si="2">IF(E6*F6&gt;0, D6,B6)</f>
         <v>1.2565028901734103</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C13" si="2">IF(E6*F6&lt;0,D6,C6)</f>
+        <f t="shared" ref="C7:C13" si="3">IF(E6*F6&lt;0,D6,C6)</f>
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D13" si="3">((G7*B7)-(F7*C7))/(G7-F7)</f>
+        <f t="shared" ref="D7:D13" si="4">((G7*B7)-(F7*C7))/(G7-F7)</f>
         <v>1.3352598631445713</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E18" si="4">2*(D7^4)-(D7^2)-6*D7+2</f>
+        <f t="shared" ref="E7:E18" si="5">2*(D7^4)-(D7^2)-6*D7+2</f>
         <v>-1.4368784578840588</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F13" si="5">2*(B7^4)-(B7^2)-6*B7+2</f>
+        <f t="shared" ref="F7:F13" si="6">2*(B7^4)-(B7^2)-6*B7+2</f>
         <v>-2.1326010494672669</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G13" si="6">2*(C7^4)-(C7^2)-6*C7+2</f>
-        <v>18</v>
+        <f t="shared" ref="G7:G13" si="7">2*(C7^4)-(C7^2)-6*C7+2</f>
+        <v>18</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4368784578840588</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3352598631445713</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3844010246128642</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.87652037005009209</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.4368784578840588</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87652037005009209</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3844010246128642</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4129860090872752</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.50218573211921935</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.87652037005009209</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.50218573211921935</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4129860090872752</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4289187240139762</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.27735536711080933</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.50218573211921935</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27735536711080933</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4289187240139762</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4375847730002662</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.15007434151472054</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.27735536711080933</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15007434151472054</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4375847730002662</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4422351173052907</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.0302282412672454E-2</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.15007434151472054</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0302282412672454E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4422351173052907</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4447123874543406</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.2711601199600935E-2</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8.0302282412672454E-2</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2711601199600935E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -783,128 +825,148 @@
         <f>2*(C14^4)-(C14^2)-6*C14+2</f>
         <v>18</v>
       </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2645214909946532E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" ref="A15:A18" si="7">A14+1</f>
+        <f t="shared" ref="A15:A18" si="8">A14+1</f>
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" ref="B15:B18" si="8">IF(E14*F14&gt;0, D14,B14)</f>
+        <f t="shared" ref="B15:B18" si="9">IF(E14*F14&gt;0, D14,B14)</f>
         <v>1.4460268918139045</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:C18" si="9">IF(E14*F14&lt;0,D14,C14)</f>
+        <f t="shared" ref="C15:C18" si="10">IF(E14*F14&lt;0,D14,C14)</f>
         <v>2</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:D18" si="10">((G15*B15)-(F15*C15))/(G15-F15)</f>
+        <f t="shared" ref="D15:D18" si="11">((G15*B15)-(F15*C15))/(G15-F15)</f>
         <v>1.4467229516841187</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.1985902289088912E-2</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ref="F15:F18" si="11">2*(B15^4)-(B15^2)-6*B15+2</f>
+        <f t="shared" ref="F15:F18" si="12">2*(B15^4)-(B15^2)-6*B15+2</f>
         <v>-2.2645214909946532E-2</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15:G18" si="12">2*(C15^4)-(C15^2)-6*C15+2</f>
-        <v>18</v>
+        <f t="shared" ref="G15:G18" si="13">2*(C15^4)-(C15^2)-6*C15+2</f>
+        <v>18</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1985902289088912E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B16" s="1">
+        <f t="shared" si="9"/>
+        <v>1.4467229516841187</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="11"/>
+        <v>1.4470911245594409</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="5"/>
+        <v>-6.3383335636952864E-3</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.1985902289088912E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3383335636952864E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <f t="shared" si="8"/>
-        <v>1.4467229516841187</v>
-      </c>
-      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
+        <v>1.4470911245594409</v>
+      </c>
+      <c r="C17" s="1">
         <f t="shared" si="10"/>
-        <v>1.4470911245594409</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="11"/>
+        <v>1.4472857516300839</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.350218945392669E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="12"/>
         <v>-6.3383335636952864E-3</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G17" s="1">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.350218945392669E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="9"/>
+        <v>1.4472857516300839</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="11"/>
-        <v>-1.1985902289088912E-2</v>
-      </c>
-      <c r="G16" s="1">
+        <v>1.4473886054724943</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.7703627066367744E-3</v>
+      </c>
+      <c r="F18" s="1">
         <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="8"/>
-        <v>1.4470911245594409</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="10"/>
-        <v>1.4472857516300839</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="4"/>
         <v>-3.350218945392669E-3</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="11"/>
-        <v>-6.3383335636952864E-3</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="8"/>
-        <v>1.4472857516300839</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="10"/>
-        <v>1.4473886054724943</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="4"/>
-        <v>-1.7703627066367744E-3</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.350218945392669E-3</v>
-      </c>
       <c r="G18" s="1">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7703627066367744E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f>A18+1</f>
         <v>15</v>
@@ -932,6 +994,10 @@
       <c r="G19" s="4">
         <f>2*(C19^4)-(C19^2)-6*C19+2</f>
         <v>18</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>9.35392086404363E-4</v>
       </c>
     </row>
   </sheetData>
